--- a/data/trans_camb/IP16A02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A02-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 17,7</t>
+          <t>-30,99; 17,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 25,37</t>
+          <t>-32,89; 26,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 30,85</t>
+          <t>-28,3; 28,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 25,5</t>
+          <t>-19,12; 23,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 25,67</t>
+          <t>-22,38; 26,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 27,49</t>
+          <t>-30,48; 28,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 14,53</t>
+          <t>-17,75; 14,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 17,0</t>
+          <t>-19,89; 17,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,07; 21,16</t>
+          <t>-19,56; 22,44</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-53,72; 56,82</t>
+          <t>-55,09; 61,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,59; 74,12</t>
+          <t>-58,61; 77,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,46; 92,93</t>
+          <t>-50,84; 83,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,85; 124,93</t>
+          <t>-41,35; 108,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,24; 107,46</t>
+          <t>-51,68; 132,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,35; 102,77</t>
+          <t>-70,68; 115,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,58; 45,14</t>
+          <t>-37,84; 48,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,43; 54,01</t>
+          <t>-43,29; 53,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,85; 64,97</t>
+          <t>-42,69; 71,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 15,45</t>
+          <t>-6,09; 15,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 7,84</t>
+          <t>-14,32; 8,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 15,11</t>
+          <t>-6,74; 16,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 22,26</t>
+          <t>0,08; 22,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 15,32</t>
+          <t>-7,02; 16,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 25,62</t>
+          <t>0,59; 26,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 16,27</t>
+          <t>1,0; 17,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 9,38</t>
+          <t>-6,83; 8,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 17,22</t>
+          <t>-0,9; 16,95</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 52,17</t>
+          <t>-14,29; 52,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,12; 25,97</t>
+          <t>-33,1; 30,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 49,66</t>
+          <t>-16,3; 55,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 82,72</t>
+          <t>0,18; 83,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 56,37</t>
+          <t>-17,61; 62,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 94,21</t>
+          <t>1,85; 98,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 54,3</t>
+          <t>2,06; 56,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 30,45</t>
+          <t>-17,53; 28,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 56,17</t>
+          <t>-2,09; 55,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-35,01; 0,28</t>
+          <t>-36,35; 0,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 12,89</t>
+          <t>-25,03; 12,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 20,54</t>
+          <t>-16,47; 21,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 24,24</t>
+          <t>-15,79; 21,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 30,54</t>
+          <t>-10,03; 30,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 36,21</t>
+          <t>-2,39; 36,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 4,59</t>
+          <t>-20,97; 4,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 14,38</t>
+          <t>-12,71; 15,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 21,82</t>
+          <t>-5,22; 22,11</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,19; 1,88</t>
+          <t>-61,5; 4,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,75; 32,44</t>
+          <t>-43,32; 32,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,68; 55,2</t>
+          <t>-28,65; 56,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 131,6</t>
+          <t>-32,94; 113,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,05; 163,01</t>
+          <t>-22,83; 147,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 189,79</t>
+          <t>-5,94; 186,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-45,68; 14,85</t>
+          <t>-41,41; 14,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 42,72</t>
+          <t>-26,08; 44,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 61,27</t>
+          <t>-10,1; 64,62</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 6,75</t>
+          <t>-10,36; 6,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 4,74</t>
+          <t>-13,29; 5,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 13,83</t>
+          <t>-6,68; 12,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 18,54</t>
+          <t>0,73; 17,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 14,84</t>
+          <t>-3,67; 15,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,04; 23,48</t>
+          <t>1,86; 22,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 9,44</t>
+          <t>-3,32; 9,2</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 6,59</t>
+          <t>-6,21; 6,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 14,22</t>
+          <t>0,53; 14,73</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 17,82</t>
+          <t>-22,97; 17,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 13,43</t>
+          <t>-29,85; 13,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 39,22</t>
+          <t>-15,55; 34,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,5; 66,28</t>
+          <t>1,99; 65,25</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 53,14</t>
+          <t>-9,84; 54,72</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>6,21; 82,9</t>
+          <t>5,41; 82,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 28,37</t>
+          <t>-7,89; 27,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 19,21</t>
+          <t>-15,27; 19,17</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,6; 43,15</t>
+          <t>1,36; 43,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A02-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-9,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,97</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,72; 27,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,19; 24,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,36; 21,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,72; 17,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,51; 26,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,3; 24,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,06; 15,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,01; 18,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,97; 15,83</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,37%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,04; 125,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,93; 114,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,16; 76,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,48; 55,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,38; 79,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,84; 73,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,01; 53,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,05; 59,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,71; 45,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,71</t>
+          <t>11,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>4,97</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-30,99; 17,7</t>
+          <t>-0,41; 22,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,89; 26,06</t>
+          <t>-6,26; 15,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,3; 28,93</t>
+          <t>-20,67; 21,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 23,39</t>
+          <t>-6,19; 15,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 26,34</t>
+          <t>-13,19; 8,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,48; 28,69</t>
+          <t>-8,46; 14,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 14,68</t>
+          <t>0,87; 16,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 17,49</t>
+          <t>-6,35; 8,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,56; 22,44</t>
+          <t>-10,52; 13,89</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,72%</t>
+          <t>36,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>-7,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,73%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,43%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>14,36%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,09; 61,08</t>
+          <t>-1,16; 86,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,61; 77,44</t>
+          <t>-16,09; 62,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,84; 83,69</t>
+          <t>-49,16; 70,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,35; 108,09</t>
+          <t>-14,19; 50,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,68; 132,39</t>
+          <t>-32,29; 30,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,68; 115,83</t>
+          <t>-19,29; 49,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,84; 48,0</t>
+          <t>2,21; 53,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,29; 53,68</t>
+          <t>-16,29; 28,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-42,69; 71,34</t>
+          <t>-26,19; 43,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>11,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>17,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>-17,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>-6,6</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,59</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,57</t>
+          <t>-8,24</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,65</t>
+          <t>8,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 15,96</t>
+          <t>-13,5; 25,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 8,75</t>
+          <t>-10,3; 31,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 16,33</t>
+          <t>-2,5; 38,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 22,22</t>
+          <t>-36,1; 0,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 16,31</t>
+          <t>-26,06; 12,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 26,14</t>
+          <t>-15,89; 24,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 17,08</t>
+          <t>-21,71; 5,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 8,78</t>
+          <t>-14,19; 14,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 16,95</t>
+          <t>-6,21; 22,34</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,82%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>53,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>-36,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>-13,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>41,61%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>-19,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>20,81%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 52,75</t>
+          <t>-32,65; 139,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 30,57</t>
+          <t>-22,76; 164,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 55,08</t>
+          <t>-7,09; 189,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,18; 83,09</t>
+          <t>-60,04; 3,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 62,7</t>
+          <t>-43,55; 32,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 98,31</t>
+          <t>-27,13; 64,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 56,94</t>
+          <t>-43,5; 16,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 28,28</t>
+          <t>-27,31; 40,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 55,25</t>
+          <t>-12,94; 64,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-17,84</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>5,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,86</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-8,24</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>4,91</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-36,35; 0,59</t>
+          <t>-0,53; 17,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 12,4</t>
+          <t>-2,4; 14,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 21,65</t>
+          <t>-10,52; 18,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 21,26</t>
+          <t>-11,03; 6,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 30,13</t>
+          <t>-13,45; 4,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 36,58</t>
+          <t>-6,4; 12,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 4,87</t>
+          <t>-2,92; 9,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 15,27</t>
+          <t>-6,42; 6,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 22,11</t>
+          <t>-5,21; 12,33</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-36,35%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-13,45%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>-4,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>-10,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>55,19%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-19,37%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>13,2%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,5; 4,5</t>
+          <t>-1,21; 61,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,32; 32,02</t>
+          <t>-6,92; 55,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 56,77</t>
+          <t>-28,37; 61,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 113,13</t>
+          <t>-23,87; 17,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 147,18</t>
+          <t>-29,33; 13,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 186,69</t>
+          <t>-14,4; 34,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,41; 14,39</t>
+          <t>-7,2; 28,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 44,15</t>
+          <t>-15,45; 19,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 64,62</t>
+          <t>-12,27; 35,34</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-2,21</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-4,49</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>8,99</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>5,74</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>13,34</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>3,08</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>7,75</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-10,36; 6,43</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-13,29; 5,01</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-6,68; 12,37</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 17,7</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; 15,0</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 22,97</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 9,2</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 6,41</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 14,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-5,36%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-10,89%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>6,91%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>27,29%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>17,41%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>40,48%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>8,25%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>1,04%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>20,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-22,97; 17,64</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-29,85; 13,51</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-15,55; 34,03</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 65,25</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-9,84; 54,72</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>5,41; 82,32</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-7,89; 27,52</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-15,27; 19,17</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>1,36; 43,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
